--- a/db/permanent/uam.xlsx
+++ b/db/permanent/uam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iafid-my.sharepoint.com/personal/yusuf_adisaputro_iaf_co_id/Documents/Desktop/02012024_practice/02012024_ERP/db/permanent/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iafid-my.sharepoint.com/personal/yusuf_adisaputro_iaf_co_id/Documents/Desktop/02012024_practice/02012024_POS/POS/db/permanent/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="52" documentId="8_{430A2B12-2A60-446D-B165-2A597F959B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC5E8951-462F-4FA6-BEA1-50C5820546FF}"/>
   <bookViews>
-    <workbookView xWindow="43215" yWindow="375" windowWidth="25785" windowHeight="13800" xr2:uid="{C5430E09-FA4C-4494-9669-E881F8A224B0}"/>
+    <workbookView xWindow="0" yWindow="214" windowWidth="14734" windowHeight="7886" xr2:uid="{C5430E09-FA4C-4494-9669-E881F8A224B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/db/permanent/uam.xlsx
+++ b/db/permanent/uam.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="52" documentId="8_{430A2B12-2A60-446D-B165-2A597F959B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC5E8951-462F-4FA6-BEA1-50C5820546FF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="214" windowWidth="14734" windowHeight="7886" xr2:uid="{C5430E09-FA4C-4494-9669-E881F8A224B0}"/>
+    <workbookView xWindow="43815" yWindow="840" windowWidth="18615" windowHeight="11400" xr2:uid="{C5430E09-FA4C-4494-9669-E881F8A224B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
